--- a/FINAL_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU.xlsx
+++ b/FINAL_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/FINAL_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7AF9F4-4F9C-554C-88A9-C2CEE3F0E55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6884E-48B2-7347-9648-4564D3D305D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8361E2F4-3CE9-4162-BC76-9D531C22DA5E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>İP NO</t>
   </si>
@@ -39,6 +39,9 @@
   <si>
     <t>PROJENİN BAŞARISINDAKİ
 ÖNEMİ(%)</t>
+  </si>
+  <si>
+    <t>BAŞARI ÖLÇÜTLERİ TABLOSU</t>
   </si>
   <si>
     <t>1, 3</t>
@@ -99,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +133,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -299,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +465,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD45CDA9-9342-644C-9287-1C962F0E2718}">
   <dimension ref="C1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:M20"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -831,28 +847,30 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51"/>
+      <c r="G4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" s="52"/>
@@ -948,10 +966,10 @@
     </row>
     <row r="11" spans="3:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -960,7 +978,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="36"/>
       <c r="K11" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
@@ -1018,7 +1036,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="22"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
@@ -1036,10 +1054,10 @@
     </row>
     <row r="16" spans="3:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -1048,7 +1066,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="36"/>
       <c r="K16" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="28"/>
@@ -1124,10 +1142,10 @@
     </row>
     <row r="21" spans="3:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -1212,10 +1230,10 @@
     </row>
     <row r="26" spans="3:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -1224,7 +1242,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="36"/>
       <c r="K26" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="28"/>
@@ -1303,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1388,10 +1406,10 @@
     </row>
     <row r="36" spans="3:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>12</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
@@ -1400,7 +1418,7 @@
       <c r="I36" s="35"/>
       <c r="J36" s="36"/>
       <c r="K36" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="28"/>
@@ -1476,7 +1494,7 @@
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C41" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -1511,8 +1529,9 @@
     <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="H41:P42"/>
+    <mergeCell ref="G4:L5"/>
     <mergeCell ref="C41:G42"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:J10"/>

--- a/FINAL_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU.xlsx
+++ b/FINAL_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/FINAL_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6884E-48B2-7347-9648-4564D3D305D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81255051-1B16-D247-AC8A-9E3BD3B3E7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8361E2F4-3CE9-4162-BC76-9D531C22DA5E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>İP NO</t>
   </si>
@@ -94,8 +94,46 @@
     <t>Proje kapsamında UAT planı ve senaryoları hazırlanacak, test tamamlanacak ve tüm sistem işlevleri onaylanacaktır. Gerekli malzemeler temin edilecek, ekip kurulacak ve demo proje test edilecektir. Saldırı tespit ve engelleme altyapısı ile Transparan İçerik Yönlendirici mimarisi tasarlanıp entegre edilecek, siber güvenlik bileşenleri geliştirilecek ve son entegrasyon tamamlanacaktır.</t>
   </si>
   <si>
-    <t>(*) Tablodaki satırlar gerektiği kadar genişletilebilir ve çoğaltılabilir.
-(**) Sütun toplamı 100 olmalıdır.</t>
+    <t>4, 9</t>
+  </si>
+  <si>
+    <t>5, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arayüz prototipinin geliştirilmesi. Güvenlik duvarlarının geliştirilmesi ve entegrasyonu;
+-Kullanıcı arayüzü için prototipler geliştirilecek, bu prototipler test edilecek ve kullanıcı geri bildirimleri alınarak onaylanacak
+-Web Uygulama Güvenlik Duvarı, DB Güvenlik Duvarı, E-posta Güvenlik Duvarı bileşenlerinin geliştirilmesi ve sisteme entegrasyonu.	</t>
+  </si>
+  <si>
+    <t>3, 10</t>
+  </si>
+  <si>
+    <t>Sistem mimarisi tasarlanması;
+-Sistem entegrasyonu için kullanılacak tüm araçlar ve protokoller belirlenip belgelenecek ve onaylanacak.
+-Transparan İçerik Yönlendirici mimarisi tasarlanacak, belgelenecek, onaylanacak ve uçtan uca güvenlik sağlayacak şekilde geliştirilecek.
+-Tüm bileşenlerin son entegrasyonu tamamlanacak ve test edilecek.</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisteme entegre edilecek uygulamalar belirlenecek, bu uygulamaların birbiriyle iletişimi ve sisteme entegrasyonu analiz edilecek. Ayrıca proje mimarisi detaylı olarak tasarlanacak ve belgelendirilecek.	</t>
+  </si>
+  <si>
+    <t>Yedekleme ve kurtarma planları hazırlanır ve test edilmesi;
+-Sistemin tüm verileri için otomatik ve manuel yedekleme planları
+-Farklı yedekleme türleri (tam, artımsal, diferansiyel) ve yedekleme frekansları
+-Verilerin güvenli bir şekilde saklanması için uygun bir depolama alanı
+-Kurtarma prosedürleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarf malzemelerin temin edilmesi, süre ve AWS bütçe belirlenmesi. Temel güvenlik altyapısının oluşturulması ve entegrasyonu	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk analizi ve değerlendirilmesinin yapılması, yedekleme ve kurtarma planlarının yapılması. Güvenlik izleme ve kontrol sistemlerinin geliştirilmesi ve entegrasyonu	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arayüz prototipinin geliştirilmesi. Güvenlik duvarlarının geliştirilmesi ve entegrasyonu	</t>
   </si>
 </sst>
 </file>
@@ -132,17 +170,18 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="25"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="25"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -309,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,18 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,10 +493,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,95 +813,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD45CDA9-9342-644C-9287-1C962F0E2718}">
-  <dimension ref="C1:P57"/>
+  <dimension ref="C1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="125" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="54" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
     </row>
     <row r="6" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
@@ -892,8 +919,8 @@
       <c r="K6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="14" t="s">
         <v>3</v>
       </c>
@@ -909,9 +936,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -925,9 +952,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
@@ -941,9 +968,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -957,9 +984,9 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -971,17 +998,17 @@
       <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="19">
         <v>10</v>
       </c>
@@ -990,64 +1017,64 @@
     </row>
     <row r="12" spans="3:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="21"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="3:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="21"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
     </row>
     <row r="14" spans="3:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="21"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="3:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="22"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
@@ -1059,17 +1086,17 @@
       <c r="D16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="19">
         <v>10</v>
       </c>
@@ -1078,64 +1105,64 @@
     </row>
     <row r="17" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="21"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
     <row r="18" spans="3:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="21"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="3:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="21"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
     <row r="20" spans="3:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="22"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -1147,17 +1174,17 @@
       <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="18">
         <v>100</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="19">
         <v>10</v>
       </c>
@@ -1166,64 +1193,64 @@
     </row>
     <row r="22" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="21"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
     </row>
     <row r="23" spans="3:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="21"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="3:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="21"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="22"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
@@ -1235,17 +1262,17 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="19">
         <v>40</v>
       </c>
@@ -1254,64 +1281,64 @@
     </row>
     <row r="27" spans="3:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="21"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
     </row>
     <row r="28" spans="3:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="21"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
     </row>
     <row r="29" spans="3:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="21"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
     </row>
     <row r="30" spans="3:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
@@ -1323,17 +1350,17 @@
       <c r="D31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="18">
         <v>100</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="19">
         <v>10</v>
       </c>
@@ -1342,64 +1369,64 @@
     </row>
     <row r="32" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="21"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
     </row>
     <row r="33" spans="3:16" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="21"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
     </row>
     <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="21"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
     </row>
     <row r="35" spans="3:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
@@ -1411,128 +1438,711 @@
       <c r="D36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="19">
         <v>10</v>
       </c>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
     </row>
-    <row r="37" spans="3:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="21"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="31"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
     </row>
-    <row r="38" spans="3:16" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:16" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="21"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="27"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
     </row>
-    <row r="39" spans="3:16" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="21"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
     </row>
-    <row r="40" spans="3:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="34"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C41" s="23" t="s">
+    <row r="41" spans="3:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="18">
+        <v>90</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="3:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="21"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+    </row>
+    <row r="43" spans="3:16" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="21"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+    </row>
+    <row r="44" spans="3:16" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="21"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+    </row>
+    <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="22"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="30"/>
+    </row>
+    <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="18">
+        <v>100</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="21"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+    </row>
+    <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="21"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+    </row>
+    <row r="49" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="21"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+    </row>
+    <row r="50" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="22"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="30"/>
+    </row>
+    <row r="51" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="23"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="24"/>
+    </row>
+    <row r="52" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="21"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+    </row>
+    <row r="53" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="21"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+    </row>
+    <row r="54" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="21"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+    </row>
+    <row r="55" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="22"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
+    </row>
+    <row r="56" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="16">
+        <v>9</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="18">
+        <v>100</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="21"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="27"/>
+    </row>
+    <row r="58" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="21"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
+    </row>
+    <row r="59" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="21"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+    </row>
+    <row r="60" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="22"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="30"/>
+    </row>
+    <row r="61" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="18">
+        <v>100</v>
+      </c>
+      <c r="L61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="21"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="27"/>
+    </row>
+    <row r="63" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="21"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="27"/>
+    </row>
+    <row r="64" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="21"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="27"/>
+    </row>
+    <row r="65" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="22"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="30"/>
+    </row>
+    <row r="66" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-    </row>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="18">
+        <v>100</v>
+      </c>
+      <c r="L66" s="23"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="24"/>
+    </row>
+    <row r="67" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="21"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="27"/>
+    </row>
+    <row r="68" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="21"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="27"/>
+    </row>
+    <row r="69" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="21"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="27"/>
+    </row>
+    <row r="70" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="22"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="30"/>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C71" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="18">
+        <v>100</v>
+      </c>
+      <c r="L71" s="23"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="24"/>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C72" s="21"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="27"/>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C73" s="21"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="27"/>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C74" s="21"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="27"/>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C75" s="22"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H41:P42"/>
+  <mergeCells count="57">
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:J75"/>
+    <mergeCell ref="K71:M75"/>
+    <mergeCell ref="N71:P75"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:J70"/>
+    <mergeCell ref="K66:M70"/>
+    <mergeCell ref="N66:P70"/>
+    <mergeCell ref="N56:P60"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:J65"/>
+    <mergeCell ref="K61:M65"/>
+    <mergeCell ref="N61:P65"/>
     <mergeCell ref="G4:L5"/>
-    <mergeCell ref="C41:G42"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:J50"/>
+    <mergeCell ref="K46:M50"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:J60"/>
+    <mergeCell ref="K56:M60"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:J10"/>
     <mergeCell ref="K6:M10"/>
@@ -1546,10 +2156,19 @@
     <mergeCell ref="D21:J25"/>
     <mergeCell ref="K21:M25"/>
     <mergeCell ref="N21:P25"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:J55"/>
+    <mergeCell ref="K51:M55"/>
+    <mergeCell ref="N51:P55"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="D36:J40"/>
     <mergeCell ref="K36:M40"/>
     <mergeCell ref="N36:P40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="D41:J45"/>
+    <mergeCell ref="K41:M45"/>
+    <mergeCell ref="N41:P45"/>
+    <mergeCell ref="N46:P50"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="D26:J30"/>
     <mergeCell ref="K26:M30"/>
@@ -1562,6 +2181,7 @@
     <mergeCell ref="D16:J20"/>
     <mergeCell ref="K16:M20"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C21" twoDigitTextYear="1"/>

--- a/FINAL_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU.xlsx
+++ b/FINAL_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/FINAL_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81255051-1B16-D247-AC8A-9E3BD3B3E7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684D82F-35F8-B84B-BD92-F357E75F450D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8361E2F4-3CE9-4162-BC76-9D531C22DA5E}"/>
   </bookViews>
